--- a/code/headline_inflation/2019/varlist_Lasso.xlsx
+++ b/code/headline_inflation/2019/varlist_Lasso.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Var</t>
   </si>
@@ -28,31 +28,55 @@
     <t>CPI Tradable_lag_2</t>
   </si>
   <si>
+    <t>Reserve Requirement Rate_lag_1</t>
+  </si>
+  <si>
+    <t>Reserve Requirement Rate_lag_2</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_1</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_2</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
+  </si>
+  <si>
+    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_1</t>
+  </si>
+  <si>
+    <t>Net International Reserves (mill $)_lag_2</t>
+  </si>
+  <si>
     <t>Real Minimum Wage (Index)_lag_1</t>
   </si>
   <si>
-    <t>Net International Reserves (mill $)_lag_2</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_1</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_2</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_1</t>
-  </si>
-  <si>
-    <t>Reserve Requirement Rate_lag_2</t>
-  </si>
-  <si>
-    <t>Reserve Requirement Rate_lag_1</t>
+    <t>Real Minimum Wage (Index)_lag_2</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Wheat (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Corn  (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Soybean oil (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Crude oil (US$ per barrel)_lag_1</t>
   </si>
   <si>
     <t>Wholesale Price Index_lag_2</t>
@@ -64,58 +88,58 @@
     <t>CPI Imported_lag_2</t>
   </si>
   <si>
+    <t>CPI Food and Energy_lag_2</t>
+  </si>
+  <si>
+    <t>CPI Non-Tradable_lag_1</t>
+  </si>
+  <si>
+    <t>CPI Non-Tradable_lag_2</t>
+  </si>
+  <si>
+    <t>CPI Core_lag_1</t>
+  </si>
+  <si>
+    <t>CPI Core_lag_2</t>
+  </si>
+  <si>
+    <t>CPI Non-Core_lag_1</t>
+  </si>
+  <si>
+    <t>CPI Non-Core_lag_2</t>
+  </si>
+  <si>
+    <t>CPI Food and Energy_lag_1</t>
+  </si>
+  <si>
+    <t>CPI Excluding Food and Energy_lag_1</t>
+  </si>
+  <si>
     <t>CPI Imported_lag_1</t>
   </si>
   <si>
+    <t>CPI Excluding Food and Energy_lag_2</t>
+  </si>
+  <si>
+    <t>CPI Food and Beverages_lag_1</t>
+  </si>
+  <si>
+    <t>CPI Food and Beverages_lag_2</t>
+  </si>
+  <si>
+    <t>CPI Excluding Food and Beverages_lag_1</t>
+  </si>
+  <si>
+    <t>CPI Excluding Food and Beverages_lag_2</t>
+  </si>
+  <si>
+    <t>CPI Core Excluding Food and Beverages_lag_1</t>
+  </si>
+  <si>
     <t>CPI Core Excluding Food and Beverages_lag_2</t>
   </si>
   <si>
-    <t>CPI Core Excluding Food and Beverages_lag_1</t>
-  </si>
-  <si>
-    <t>CPI Excluding Food and Beverages_lag_2</t>
-  </si>
-  <si>
-    <t>CPI Excluding Food and Beverages_lag_1</t>
-  </si>
-  <si>
-    <t>CPI Food and Beverages_lag_2</t>
-  </si>
-  <si>
-    <t>CPI Food and Beverages_lag_1</t>
-  </si>
-  <si>
-    <t>CPI Excluding Food and Energy_lag_2</t>
-  </si>
-  <si>
-    <t>CPI Excluding Food and Energy_lag_1</t>
-  </si>
-  <si>
-    <t>CPI Food and Energy_lag_2</t>
-  </si>
-  <si>
-    <t>CPI Food and Energy_lag_1</t>
-  </si>
-  <si>
-    <t>CPI Non-Core_lag_2</t>
-  </si>
-  <si>
-    <t>CPI Non-Core_lag_1</t>
-  </si>
-  <si>
-    <t>CPI Core_lag_2</t>
-  </si>
-  <si>
-    <t>CPI Core_lag_1</t>
-  </si>
-  <si>
-    <t>CPI Non-Tradable_lag_2</t>
-  </si>
-  <si>
-    <t>CPI Non-Tradable_lag_1</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_2</t>
+    <t>Crude oil (US$ per barrel)_lag_2</t>
   </si>
 </sst>
 </file>
@@ -473,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,7 +535,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -522,7 +546,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -533,7 +557,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -544,7 +568,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -566,7 +590,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -577,7 +601,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -588,7 +612,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -599,7 +623,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -610,7 +634,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -621,7 +645,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -632,7 +656,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -643,7 +667,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -654,7 +678,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -665,7 +689,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -676,7 +700,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -687,7 +711,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -698,7 +722,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -709,7 +733,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -720,7 +744,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -731,7 +755,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -742,7 +766,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -753,7 +777,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -764,7 +788,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -775,7 +799,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -786,7 +810,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -797,7 +821,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -808,7 +832,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -819,7 +843,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -830,12 +854,100 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
       <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
         <v>0</v>
       </c>
     </row>
